--- a/tables/TableS1_database_design.xlsx
+++ b/tables/TableS1_database_design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D1C1F2-D9F2-A84A-9121-2C433AF7CC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286C3436-DD77-654B-8B42-290BEFDB8EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{EF649B84-3C3E-464C-A631-A7E37E3F924C}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="35840" windowHeight="20200" xr2:uid="{EF649B84-3C3E-464C-A631-A7E37E3F924C}"/>
   </bookViews>
   <sheets>
     <sheet name="FInal" sheetId="2" r:id="rId1"/>
@@ -298,18 +298,9 @@
     <t>Number of compartments</t>
   </si>
   <si>
-    <t>Options: one, two, one vs. two</t>
-  </si>
-  <si>
-    <t>Depuration rate (/hr)</t>
-  </si>
-  <si>
     <t>Half life (hr)</t>
   </si>
   <si>
-    <t>Depuration rate (/day)</t>
-  </si>
-  <si>
     <t>Half life (day)</t>
   </si>
   <si>
@@ -343,12 +334,6 @@
     <t>Options: Amnesic, Diarrhetic, Paralytic, Azaspiracid, Ciguatera, Neurotoxic, Cyanotoxin, Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Examples: </t>
-  </si>
-  <si>
-    <t>Options: Domoic acid, Okadaic acid, Saxitoxin, Azaspiracid, Ciguatoxin, Brevetoxin, Cyanotoxin, Other</t>
-  </si>
-  <si>
     <t>Examples: Pseudo-nitzschia australis</t>
   </si>
   <si>
@@ -359,6 +344,21 @@
   </si>
   <si>
     <t>Examples: Temperature, Exposure, Diet type, etc.</t>
+  </si>
+  <si>
+    <t>Options: Domoic acid, DSTs,PSTs, Azaspiracid, Ciguatoxin, Brevetoxin, Cyanotoxin, Other</t>
+  </si>
+  <si>
+    <t>Examples: dcSTX, GTX3, okadaic acid, etc</t>
+  </si>
+  <si>
+    <t>Options: none, one, two, one vs. two</t>
+  </si>
+  <si>
+    <t>Depuration rate (1/day)</t>
+  </si>
+  <si>
+    <t>Depuration rate (1/hr)</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -789,7 +789,7 @@
         <v>76</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickTop="1">
@@ -800,7 +800,7 @@
         <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -811,7 +811,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
@@ -822,7 +822,7 @@
         <v>79</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -844,7 +844,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -866,7 +866,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -877,7 +877,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -888,7 +888,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -899,7 +899,7 @@
         <v>84</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -910,7 +910,7 @@
         <v>85</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -932,7 +932,7 @@
         <v>88</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -940,10 +940,10 @@
         <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -954,7 +954,7 @@
         <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -962,7 +962,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -970,7 +970,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -978,7 +978,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -986,7 +986,7 @@
         <v>73</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -994,7 +994,7 @@
         <v>74</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
